--- a/dataExcel/【XM1014 _ 埋葬之影 (久经沙场)】Buff近1个月-总览.xlsx
+++ b/dataExcel/【XM1014 _ 埋葬之影 (久经沙场)】Buff近1个月-总览.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F143"/>
+  <dimension ref="A1:F147"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -422,559 +422,559 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2023-09-15 00:08:28</v>
+        <v>2023-09-17 18:40:11</v>
       </c>
       <c r="B8">
-        <v>24.03</v>
+        <v>24.76</v>
       </c>
       <c r="C8">
-        <v>30.9</v>
+        <v>32.01</v>
       </c>
       <c r="D8">
-        <v>569</v>
+        <v>541</v>
       </c>
       <c r="E8">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="F8">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2023-09-15 05:18:27</v>
+        <v>2023-09-17 23:52:27</v>
       </c>
       <c r="B9">
-        <v>23</v>
+        <v>25.1</v>
       </c>
       <c r="C9">
-        <v>29.69</v>
+        <v>30.7</v>
       </c>
       <c r="D9">
-        <v>581</v>
+        <v>557</v>
       </c>
       <c r="E9">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="F9">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2023-09-15 10:28:57</v>
+        <v>2023-09-18 05:00:58</v>
       </c>
       <c r="B10">
-        <v>23.79</v>
+        <v>24.8</v>
       </c>
       <c r="C10">
-        <v>29.83</v>
+        <v>32.01</v>
       </c>
       <c r="D10">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="E10">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="F10">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2023-09-16 05:54:53</v>
+        <v>2023-09-18 10:10:23</v>
       </c>
       <c r="B11">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="C11">
-        <v>29.9</v>
+        <v>30.77</v>
       </c>
       <c r="D11">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="E11">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="F11">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2023-09-16 11:31:54</v>
+        <v>2023-09-18 15:21:47</v>
       </c>
       <c r="B12">
         <v>24.9</v>
       </c>
       <c r="C12">
-        <v>32.74</v>
+        <v>30.62</v>
       </c>
       <c r="D12">
-        <v>541</v>
+        <v>524</v>
       </c>
       <c r="E12">
-        <v>23.2</v>
+        <v>23.7</v>
       </c>
       <c r="F12">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2023-09-16 16:40:24</v>
+        <v>2023-09-18 20:32:33</v>
       </c>
       <c r="B13">
-        <v>24.19</v>
+        <v>23.98</v>
       </c>
       <c r="C13">
         <v>30.7</v>
       </c>
       <c r="D13">
-        <v>498</v>
+        <v>545</v>
       </c>
       <c r="E13">
-        <v>23.2</v>
+        <v>23.7</v>
       </c>
       <c r="F13">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2023-09-16 21:54:16</v>
+        <v>2023-09-19 01:42:23</v>
       </c>
       <c r="B14">
-        <v>24.87</v>
+        <v>23.87</v>
       </c>
       <c r="C14">
-        <v>31.57</v>
+        <v>31.79</v>
       </c>
       <c r="D14">
-        <v>560</v>
+        <v>579</v>
       </c>
       <c r="E14">
-        <v>23.8</v>
+        <v>23.4</v>
       </c>
       <c r="F14">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2023-09-17 03:03:43</v>
+        <v>2023-09-19 06:51:52</v>
       </c>
       <c r="B15">
-        <v>24.77</v>
+        <v>24.3</v>
       </c>
       <c r="C15">
-        <v>31.79</v>
+        <v>32.96</v>
       </c>
       <c r="D15">
-        <v>556</v>
+        <v>605</v>
       </c>
       <c r="E15">
-        <v>23.9</v>
+        <v>23.4</v>
       </c>
       <c r="F15">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2023-09-17 08:11:29</v>
+        <v>2023-09-19 12:00:45</v>
       </c>
       <c r="B16">
-        <v>24.57</v>
+        <v>24.2</v>
       </c>
       <c r="C16">
-        <v>30.77</v>
+        <v>31.14</v>
       </c>
       <c r="D16">
-        <v>518</v>
+        <v>599</v>
       </c>
       <c r="E16">
-        <v>23.9</v>
+        <v>23.3</v>
       </c>
       <c r="F16">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2023-09-17 13:30:13</v>
+        <v>2023-09-19 17:12:52</v>
       </c>
       <c r="B17">
-        <v>23.9</v>
+        <v>23.84</v>
       </c>
       <c r="C17">
-        <v>32.59</v>
+        <v>31.58</v>
       </c>
       <c r="D17">
-        <v>487</v>
+        <v>616</v>
       </c>
       <c r="E17">
-        <v>23.9</v>
+        <v>23.2</v>
       </c>
       <c r="F17">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2023-09-17 18:40:11</v>
+        <v>2023-09-19 22:22:04</v>
       </c>
       <c r="B18">
-        <v>24.76</v>
+        <v>24.3</v>
       </c>
       <c r="C18">
-        <v>32.01</v>
+        <v>30.77</v>
       </c>
       <c r="D18">
-        <v>541</v>
+        <v>564</v>
       </c>
       <c r="E18">
-        <v>23.4</v>
+        <v>23</v>
       </c>
       <c r="F18">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2023-09-17 23:52:27</v>
+        <v>2023-09-20 03:33:03</v>
       </c>
       <c r="B19">
-        <v>25.1</v>
+        <v>24.3</v>
       </c>
       <c r="C19">
-        <v>30.7</v>
+        <v>30.77</v>
       </c>
       <c r="D19">
-        <v>557</v>
+        <v>572</v>
       </c>
       <c r="E19">
-        <v>23.3</v>
+        <v>23</v>
       </c>
       <c r="F19">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2023-09-18 05:00:58</v>
+        <v>2023-09-20 08:42:55</v>
       </c>
       <c r="B20">
-        <v>24.8</v>
+        <v>24.98</v>
       </c>
       <c r="C20">
-        <v>32.01</v>
+        <v>30.87</v>
       </c>
       <c r="D20">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="E20">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="F20">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2023-09-18 10:10:23</v>
+        <v>2023-09-20 13:51:12</v>
       </c>
       <c r="B21">
-        <v>24</v>
+        <v>24.3</v>
       </c>
       <c r="C21">
-        <v>30.77</v>
+        <v>30.87</v>
       </c>
       <c r="D21">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="E21">
-        <v>23.4</v>
+        <v>23</v>
       </c>
       <c r="F21">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2023-09-18 15:21:47</v>
+        <v>2023-09-20 19:03:07</v>
       </c>
       <c r="B22">
-        <v>24.9</v>
+        <v>23.28</v>
       </c>
       <c r="C22">
-        <v>30.62</v>
+        <v>30.87</v>
       </c>
       <c r="D22">
-        <v>524</v>
+        <v>577</v>
       </c>
       <c r="E22">
-        <v>23.7</v>
+        <v>23</v>
       </c>
       <c r="F22">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2023-09-18 20:32:33</v>
+        <v>2023-09-21 00:13:19</v>
       </c>
       <c r="B23">
-        <v>23.98</v>
+        <v>23.38</v>
       </c>
       <c r="C23">
-        <v>30.7</v>
+        <v>30.79</v>
       </c>
       <c r="D23">
-        <v>545</v>
+        <v>590</v>
       </c>
       <c r="E23">
-        <v>23.7</v>
+        <v>23.2</v>
       </c>
       <c r="F23">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2023-09-19 01:42:23</v>
+        <v>2023-09-21 05:24:26</v>
       </c>
       <c r="B24">
-        <v>23.87</v>
+        <v>24.5</v>
       </c>
       <c r="C24">
-        <v>31.79</v>
+        <v>30.79</v>
       </c>
       <c r="D24">
-        <v>579</v>
+        <v>555</v>
       </c>
       <c r="E24">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="F24">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2023-09-19 06:51:52</v>
+        <v>2023-09-21 10:32:24</v>
       </c>
       <c r="B25">
-        <v>24.3</v>
+        <v>24.56</v>
       </c>
       <c r="C25">
-        <v>32.96</v>
+        <v>30.83</v>
       </c>
       <c r="D25">
-        <v>605</v>
+        <v>573</v>
       </c>
       <c r="E25">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="F25">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2023-09-19 12:00:45</v>
+        <v>2023-09-21 15:43:36</v>
       </c>
       <c r="B26">
-        <v>24.2</v>
+        <v>24.25</v>
       </c>
       <c r="C26">
-        <v>31.14</v>
+        <v>31.12</v>
       </c>
       <c r="D26">
-        <v>599</v>
+        <v>684</v>
       </c>
       <c r="E26">
-        <v>23.3</v>
+        <v>23</v>
       </c>
       <c r="F26">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2023-09-19 17:12:52</v>
+        <v>2023-09-21 20:52:45</v>
       </c>
       <c r="B27">
-        <v>23.84</v>
+        <v>24.2</v>
       </c>
       <c r="C27">
-        <v>31.58</v>
+        <v>31.12</v>
       </c>
       <c r="D27">
-        <v>616</v>
+        <v>743</v>
       </c>
       <c r="E27">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="F27">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2023-09-19 22:22:04</v>
+        <v>2023-09-22 02:02:12</v>
       </c>
       <c r="B28">
-        <v>24.3</v>
+        <v>24.37</v>
       </c>
       <c r="C28">
-        <v>30.77</v>
+        <v>31.12</v>
       </c>
       <c r="D28">
-        <v>564</v>
+        <v>718</v>
       </c>
       <c r="E28">
-        <v>23</v>
+        <v>23.3</v>
       </c>
       <c r="F28">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>2023-09-20 03:33:03</v>
+        <v>2023-09-22 07:14:34</v>
       </c>
       <c r="B29">
-        <v>24.3</v>
+        <v>24</v>
       </c>
       <c r="C29">
-        <v>30.77</v>
+        <v>31.13</v>
       </c>
       <c r="D29">
-        <v>572</v>
+        <v>719</v>
       </c>
       <c r="E29">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="F29">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2023-09-20 08:42:55</v>
+        <v>2023-09-22 12:22:56</v>
       </c>
       <c r="B30">
-        <v>24.98</v>
+        <v>24</v>
       </c>
       <c r="C30">
-        <v>30.87</v>
+        <v>31.06</v>
       </c>
       <c r="D30">
-        <v>551</v>
+        <v>724</v>
       </c>
       <c r="E30">
-        <v>23.1</v>
+        <v>23.4</v>
       </c>
       <c r="F30">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2023-09-20 13:51:12</v>
+        <v>2023-09-22 17:33:12</v>
       </c>
       <c r="B31">
-        <v>24.3</v>
+        <v>23.87</v>
       </c>
       <c r="C31">
-        <v>30.87</v>
+        <v>31.06</v>
       </c>
       <c r="D31">
-        <v>536</v>
+        <v>658</v>
       </c>
       <c r="E31">
-        <v>23</v>
+        <v>23.4</v>
       </c>
       <c r="F31">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>2023-09-20 19:03:07</v>
+        <v>2023-09-22 22:42:12</v>
       </c>
       <c r="B32">
-        <v>23.28</v>
+        <v>23.95</v>
       </c>
       <c r="C32">
-        <v>30.87</v>
+        <v>31.13</v>
       </c>
       <c r="D32">
-        <v>577</v>
+        <v>707</v>
       </c>
       <c r="E32">
-        <v>23</v>
+        <v>23.4</v>
       </c>
       <c r="F32">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>2023-09-21 00:13:19</v>
+        <v>2023-09-23 03:55:32</v>
       </c>
       <c r="B33">
-        <v>23.38</v>
+        <v>23.5</v>
       </c>
       <c r="C33">
-        <v>30.79</v>
+        <v>31.06</v>
       </c>
       <c r="D33">
-        <v>590</v>
+        <v>697</v>
       </c>
       <c r="E33">
-        <v>23.2</v>
+        <v>22.1</v>
       </c>
       <c r="F33">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>2023-09-21 05:24:26</v>
+        <v>2023-09-23 09:04:28</v>
       </c>
       <c r="B34">
-        <v>24.5</v>
+        <v>23.5</v>
       </c>
       <c r="C34">
-        <v>30.79</v>
+        <v>31.02</v>
       </c>
       <c r="D34">
-        <v>555</v>
+        <v>678</v>
       </c>
       <c r="E34">
-        <v>23.2</v>
+        <v>22.1</v>
       </c>
       <c r="F34">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>2023-09-21 10:32:24</v>
+        <v>2023-09-23 14:12:32</v>
       </c>
       <c r="B35">
-        <v>24.56</v>
+        <v>23.8</v>
       </c>
       <c r="C35">
-        <v>30.83</v>
+        <v>31.09</v>
       </c>
       <c r="D35">
-        <v>573</v>
+        <v>657</v>
       </c>
       <c r="E35">
-        <v>23.2</v>
+        <v>22.3</v>
       </c>
       <c r="F35">
         <v>50</v>
@@ -982,239 +982,239 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>2023-09-21 15:43:36</v>
+        <v>2023-09-23 19:23:49</v>
       </c>
       <c r="B36">
-        <v>24.25</v>
+        <v>23.4</v>
       </c>
       <c r="C36">
-        <v>31.12</v>
+        <v>31.24</v>
       </c>
       <c r="D36">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="E36">
-        <v>23</v>
+        <v>22.4</v>
       </c>
       <c r="F36">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>2023-09-21 20:52:45</v>
+        <v>2023-09-24 00:36:09</v>
       </c>
       <c r="B37">
-        <v>24.2</v>
+        <v>23.7</v>
       </c>
       <c r="C37">
-        <v>31.12</v>
+        <v>31.09</v>
       </c>
       <c r="D37">
-        <v>743</v>
+        <v>564</v>
       </c>
       <c r="E37">
-        <v>23</v>
+        <v>22.4</v>
       </c>
       <c r="F37">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>2023-09-22 02:02:12</v>
+        <v>2023-09-24 05:44:10</v>
       </c>
       <c r="B38">
-        <v>24.37</v>
+        <v>23.77</v>
       </c>
       <c r="C38">
-        <v>31.12</v>
+        <v>31.01</v>
       </c>
       <c r="D38">
-        <v>718</v>
+        <v>564</v>
       </c>
       <c r="E38">
-        <v>23.3</v>
+        <v>22.4</v>
       </c>
       <c r="F38">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>2023-09-22 07:14:34</v>
+        <v>2023-09-24 10:55:32</v>
       </c>
       <c r="B39">
-        <v>24</v>
+        <v>24.4</v>
       </c>
       <c r="C39">
-        <v>31.13</v>
+        <v>31.01</v>
       </c>
       <c r="D39">
-        <v>719</v>
+        <v>539</v>
       </c>
       <c r="E39">
-        <v>23.5</v>
+        <v>22.5</v>
       </c>
       <c r="F39">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>2023-09-22 12:22:56</v>
+        <v>2023-09-24 16:04:19</v>
       </c>
       <c r="B40">
-        <v>24</v>
+        <v>23.7</v>
       </c>
       <c r="C40">
-        <v>31.06</v>
+        <v>31.01</v>
       </c>
       <c r="D40">
-        <v>724</v>
+        <v>570</v>
       </c>
       <c r="E40">
         <v>23.4</v>
       </c>
       <c r="F40">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>2023-09-22 17:33:12</v>
+        <v>2023-09-24 21:14:07</v>
       </c>
       <c r="B41">
-        <v>23.87</v>
+        <v>24.9</v>
       </c>
       <c r="C41">
-        <v>31.06</v>
+        <v>31.01</v>
       </c>
       <c r="D41">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="E41">
         <v>23.4</v>
       </c>
       <c r="F41">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>2023-09-22 22:42:12</v>
+        <v>2023-09-25 02:25:09</v>
       </c>
       <c r="B42">
-        <v>23.95</v>
+        <v>25.28</v>
       </c>
       <c r="C42">
-        <v>31.13</v>
+        <v>30.79</v>
       </c>
       <c r="D42">
-        <v>707</v>
+        <v>630</v>
       </c>
       <c r="E42">
-        <v>23.4</v>
+        <v>23</v>
       </c>
       <c r="F42">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>2023-09-23 03:55:32</v>
+        <v>2023-09-25 07:35:23</v>
       </c>
       <c r="B43">
-        <v>23.5</v>
+        <v>25.18</v>
       </c>
       <c r="C43">
-        <v>31.06</v>
+        <v>31.01</v>
       </c>
       <c r="D43">
-        <v>697</v>
+        <v>648</v>
       </c>
       <c r="E43">
-        <v>22.1</v>
+        <v>23.3</v>
       </c>
       <c r="F43">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>2023-09-23 09:04:28</v>
+        <v>2023-09-25 12:45:34</v>
       </c>
       <c r="B44">
         <v>23.5</v>
       </c>
       <c r="C44">
-        <v>31.02</v>
+        <v>31.16</v>
       </c>
       <c r="D44">
-        <v>678</v>
+        <v>636</v>
       </c>
       <c r="E44">
-        <v>22.1</v>
+        <v>22.7</v>
       </c>
       <c r="F44">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>2023-09-23 14:12:32</v>
+        <v>2023-09-25 17:54:56</v>
       </c>
       <c r="B45">
-        <v>23.8</v>
+        <v>23.4</v>
       </c>
       <c r="C45">
-        <v>31.09</v>
+        <v>31.23</v>
       </c>
       <c r="D45">
-        <v>657</v>
+        <v>796</v>
       </c>
       <c r="E45">
-        <v>22.3</v>
+        <v>23</v>
       </c>
       <c r="F45">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>2023-09-23 19:23:49</v>
+        <v>2023-09-25 23:04:13</v>
       </c>
       <c r="B46">
-        <v>23.4</v>
+        <v>23.88</v>
       </c>
       <c r="C46">
-        <v>31.24</v>
+        <v>31.23</v>
       </c>
       <c r="D46">
-        <v>677</v>
+        <v>767</v>
       </c>
       <c r="E46">
-        <v>22.4</v>
+        <v>22.8</v>
       </c>
       <c r="F46">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>2023-09-24 00:36:09</v>
+        <v>2023-09-26 04:18:12</v>
       </c>
       <c r="B47">
-        <v>23.7</v>
+        <v>24.29</v>
       </c>
       <c r="C47">
-        <v>31.09</v>
+        <v>31.22</v>
       </c>
       <c r="D47">
-        <v>564</v>
+        <v>774</v>
       </c>
       <c r="E47">
-        <v>22.4</v>
+        <v>22.8</v>
       </c>
       <c r="F47">
         <v>44</v>
@@ -1222,19 +1222,19 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>2023-09-24 05:44:10</v>
+        <v>2023-09-26 09:25:04</v>
       </c>
       <c r="B48">
-        <v>23.77</v>
+        <v>24</v>
       </c>
       <c r="C48">
-        <v>31.01</v>
+        <v>29.54</v>
       </c>
       <c r="D48">
-        <v>564</v>
+        <v>771</v>
       </c>
       <c r="E48">
-        <v>22.4</v>
+        <v>22.8</v>
       </c>
       <c r="F48">
         <v>44</v>
@@ -1242,979 +1242,979 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>2023-09-24 10:55:32</v>
+        <v>2023-09-26 14:35:54</v>
       </c>
       <c r="B49">
-        <v>24.4</v>
+        <v>23.4</v>
       </c>
       <c r="C49">
-        <v>31.01</v>
+        <v>31.44</v>
       </c>
       <c r="D49">
-        <v>539</v>
+        <v>765</v>
       </c>
       <c r="E49">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="F49">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>2023-09-24 16:04:19</v>
+        <v>2023-09-26 19:44:56</v>
       </c>
       <c r="B50">
-        <v>23.7</v>
+        <v>23.1</v>
       </c>
       <c r="C50">
-        <v>31.01</v>
+        <v>31.44</v>
       </c>
       <c r="D50">
-        <v>570</v>
+        <v>841</v>
       </c>
       <c r="E50">
-        <v>23.4</v>
+        <v>22.8</v>
       </c>
       <c r="F50">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>2023-09-24 21:14:07</v>
+        <v>2023-09-27 00:55:32</v>
       </c>
       <c r="B51">
-        <v>24.9</v>
+        <v>23.72</v>
       </c>
       <c r="C51">
-        <v>31.01</v>
+        <v>31.3</v>
       </c>
       <c r="D51">
-        <v>670</v>
+        <v>813</v>
       </c>
       <c r="E51">
-        <v>23.4</v>
+        <v>22.9</v>
       </c>
       <c r="F51">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>2023-09-25 02:25:09</v>
+        <v>2023-09-27 06:05:06</v>
       </c>
       <c r="B52">
-        <v>25.28</v>
+        <v>23.72</v>
       </c>
       <c r="C52">
-        <v>30.79</v>
+        <v>31.15</v>
       </c>
       <c r="D52">
-        <v>630</v>
+        <v>792</v>
       </c>
       <c r="E52">
         <v>23</v>
       </c>
       <c r="F52">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>2023-09-25 07:35:23</v>
+        <v>2023-09-27 11:16:31</v>
       </c>
       <c r="B53">
-        <v>25.18</v>
+        <v>23.01</v>
       </c>
       <c r="C53">
-        <v>31.01</v>
+        <v>31.07</v>
       </c>
       <c r="D53">
-        <v>648</v>
+        <v>775</v>
       </c>
       <c r="E53">
-        <v>23.3</v>
+        <v>23</v>
       </c>
       <c r="F53">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>2023-09-25 12:45:34</v>
+        <v>2023-09-27 16:25:48</v>
       </c>
       <c r="B54">
-        <v>23.5</v>
+        <v>23.52</v>
       </c>
       <c r="C54">
-        <v>31.16</v>
+        <v>31.07</v>
       </c>
       <c r="D54">
-        <v>636</v>
+        <v>840</v>
       </c>
       <c r="E54">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="F54">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>2023-09-25 17:54:56</v>
+        <v>2023-09-27 21:36:41</v>
       </c>
       <c r="B55">
-        <v>23.4</v>
+        <v>23</v>
       </c>
       <c r="C55">
-        <v>31.23</v>
+        <v>31.07</v>
       </c>
       <c r="D55">
-        <v>796</v>
+        <v>859</v>
       </c>
       <c r="E55">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="F55">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>2023-09-25 23:04:13</v>
+        <v>2023-09-28 02:45:22</v>
       </c>
       <c r="B56">
-        <v>23.88</v>
+        <v>23.24</v>
       </c>
       <c r="C56">
-        <v>31.23</v>
+        <v>31.07</v>
       </c>
       <c r="D56">
-        <v>767</v>
+        <v>829</v>
       </c>
       <c r="E56">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="F56">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>2023-09-26 04:18:12</v>
+        <v>2023-09-28 07:57:37</v>
       </c>
       <c r="B57">
-        <v>24.29</v>
+        <v>23.14</v>
       </c>
       <c r="C57">
-        <v>31.22</v>
+        <v>31.07</v>
       </c>
       <c r="D57">
-        <v>774</v>
+        <v>843</v>
       </c>
       <c r="E57">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="F57">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>2023-09-26 09:25:04</v>
+        <v>2023-09-28 13:06:17</v>
       </c>
       <c r="B58">
-        <v>24</v>
+        <v>23.25</v>
       </c>
       <c r="C58">
-        <v>29.54</v>
+        <v>30.7</v>
       </c>
       <c r="D58">
-        <v>771</v>
+        <v>843</v>
       </c>
       <c r="E58">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="F58">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>2023-09-26 14:35:54</v>
+        <v>2023-09-28 18:16:06</v>
       </c>
       <c r="B59">
-        <v>23.4</v>
+        <v>21</v>
       </c>
       <c r="C59">
-        <v>31.44</v>
+        <v>30.56</v>
       </c>
       <c r="D59">
-        <v>765</v>
+        <v>971</v>
       </c>
       <c r="E59">
-        <v>22.7</v>
+        <v>21.2</v>
       </c>
       <c r="F59">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>2023-09-26 19:44:56</v>
+        <v>2023-09-28 23:25:45</v>
       </c>
       <c r="B60">
-        <v>23.1</v>
+        <v>22.54</v>
       </c>
       <c r="C60">
-        <v>31.44</v>
+        <v>30.48</v>
       </c>
       <c r="D60">
-        <v>841</v>
+        <v>969</v>
       </c>
       <c r="E60">
-        <v>22.8</v>
+        <v>21</v>
       </c>
       <c r="F60">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>2023-09-27 00:55:32</v>
+        <v>2023-09-29 04:35:26</v>
       </c>
       <c r="B61">
-        <v>23.72</v>
+        <v>22.33</v>
       </c>
       <c r="C61">
-        <v>31.3</v>
+        <v>30.3</v>
       </c>
       <c r="D61">
-        <v>813</v>
+        <v>993</v>
       </c>
       <c r="E61">
-        <v>22.9</v>
+        <v>21</v>
       </c>
       <c r="F61">
-        <v>56</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>2023-09-27 06:05:06</v>
+        <v>2023-09-29 09:47:01</v>
       </c>
       <c r="B62">
-        <v>23.72</v>
+        <v>21.89</v>
       </c>
       <c r="C62">
-        <v>31.15</v>
+        <v>30.3</v>
       </c>
       <c r="D62">
-        <v>792</v>
+        <v>1003</v>
       </c>
       <c r="E62">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F62">
-        <v>51</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>2023-09-27 11:16:31</v>
+        <v>2023-09-29 14:58:19</v>
       </c>
       <c r="B63">
-        <v>23.01</v>
+        <v>21.09</v>
       </c>
       <c r="C63">
-        <v>31.07</v>
+        <v>29.93</v>
       </c>
       <c r="D63">
-        <v>775</v>
+        <v>987</v>
       </c>
       <c r="E63">
-        <v>23</v>
+        <v>20.6</v>
       </c>
       <c r="F63">
-        <v>47</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>2023-09-27 16:25:48</v>
+        <v>2023-09-29 20:05:42</v>
       </c>
       <c r="B64">
-        <v>23.52</v>
+        <v>20.2</v>
       </c>
       <c r="C64">
-        <v>31.07</v>
+        <v>29.5</v>
       </c>
       <c r="D64">
-        <v>840</v>
+        <v>1094</v>
       </c>
       <c r="E64">
-        <v>22.8</v>
+        <v>19.1</v>
       </c>
       <c r="F64">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>2023-09-27 21:36:41</v>
+        <v>2023-09-30 01:16:26</v>
       </c>
       <c r="B65">
-        <v>23</v>
+        <v>20.39</v>
       </c>
       <c r="C65">
-        <v>31.07</v>
+        <v>29.42</v>
       </c>
       <c r="D65">
-        <v>859</v>
+        <v>1024</v>
       </c>
       <c r="E65">
-        <v>22.9</v>
+        <v>19.1</v>
       </c>
       <c r="F65">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>2023-09-28 02:45:22</v>
+        <v>2023-09-30 06:22:11</v>
       </c>
       <c r="B66">
-        <v>23.24</v>
+        <v>20.38</v>
       </c>
       <c r="C66">
-        <v>31.07</v>
+        <v>29.55</v>
       </c>
       <c r="D66">
-        <v>829</v>
+        <v>1018</v>
       </c>
       <c r="E66">
-        <v>22.9</v>
+        <v>19.1</v>
       </c>
       <c r="F66">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>2023-09-28 07:57:37</v>
+        <v>2023-09-30 11:32:53</v>
       </c>
       <c r="B67">
-        <v>23.14</v>
+        <v>20.07</v>
       </c>
       <c r="C67">
-        <v>31.07</v>
+        <v>29.91</v>
       </c>
       <c r="D67">
-        <v>843</v>
+        <v>999</v>
       </c>
       <c r="E67">
-        <v>22.9</v>
+        <v>19.1</v>
       </c>
       <c r="F67">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>2023-09-28 13:06:17</v>
+        <v>2023-09-30 16:41:29</v>
       </c>
       <c r="B68">
-        <v>23.25</v>
+        <v>19.78</v>
       </c>
       <c r="C68">
-        <v>30.7</v>
+        <v>29.11</v>
       </c>
       <c r="D68">
-        <v>843</v>
+        <v>1103</v>
       </c>
       <c r="E68">
-        <v>22.9</v>
+        <v>19.1</v>
       </c>
       <c r="F68">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>2023-09-28 18:16:06</v>
+        <v>2023-09-30 21:52:06</v>
       </c>
       <c r="B69">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="C69">
-        <v>30.56</v>
+        <v>28.74</v>
       </c>
       <c r="D69">
-        <v>971</v>
+        <v>1156</v>
       </c>
       <c r="E69">
-        <v>21.2</v>
+        <v>18</v>
       </c>
       <c r="F69">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>2023-09-28 23:25:45</v>
+        <v>2023-10-01 03:02:33</v>
       </c>
       <c r="B70">
-        <v>22.54</v>
+        <v>20.7</v>
       </c>
       <c r="C70">
-        <v>30.48</v>
+        <v>28.74</v>
       </c>
       <c r="D70">
-        <v>969</v>
+        <v>1158</v>
       </c>
       <c r="E70">
-        <v>21</v>
+        <v>18.6</v>
       </c>
       <c r="F70">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>2023-09-29 04:35:26</v>
+        <v>2023-10-01 08:12:00</v>
       </c>
       <c r="B71">
-        <v>22.33</v>
+        <v>20.8</v>
       </c>
       <c r="C71">
-        <v>30.3</v>
+        <v>28.89</v>
       </c>
       <c r="D71">
-        <v>993</v>
+        <v>1160</v>
       </c>
       <c r="E71">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F71">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>2023-09-29 09:47:01</v>
+        <v>2023-10-01 13:21:32</v>
       </c>
       <c r="B72">
-        <v>21.89</v>
+        <v>20.9</v>
       </c>
       <c r="C72">
-        <v>30.3</v>
+        <v>28.81</v>
       </c>
       <c r="D72">
-        <v>1003</v>
+        <v>1138</v>
       </c>
       <c r="E72">
-        <v>21</v>
+        <v>19.1</v>
       </c>
       <c r="F72">
-        <v>10</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>2023-09-29 14:58:19</v>
+        <v>2023-10-01 18:32:00</v>
       </c>
       <c r="B73">
-        <v>21.09</v>
+        <v>19.89</v>
       </c>
       <c r="C73">
-        <v>29.93</v>
+        <v>29.18</v>
       </c>
       <c r="D73">
-        <v>987</v>
+        <v>1143</v>
       </c>
       <c r="E73">
-        <v>20.6</v>
+        <v>19.1</v>
       </c>
       <c r="F73">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>2023-09-29 20:05:42</v>
+        <v>2023-10-01 23:41:52</v>
       </c>
       <c r="B74">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="C74">
-        <v>29.5</v>
+        <v>28.74</v>
       </c>
       <c r="D74">
-        <v>1094</v>
+        <v>1023</v>
       </c>
       <c r="E74">
         <v>19.1</v>
       </c>
       <c r="F74">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>2023-09-30 01:16:26</v>
+        <v>2023-10-02 04:51:44</v>
       </c>
       <c r="B75">
-        <v>20.39</v>
+        <v>21.2</v>
       </c>
       <c r="C75">
-        <v>29.42</v>
+        <v>28.26</v>
       </c>
       <c r="D75">
-        <v>1024</v>
+        <v>1006</v>
       </c>
       <c r="E75">
         <v>19.1</v>
       </c>
       <c r="F75">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>2023-09-30 06:22:11</v>
+        <v>2023-10-02 10:03:24</v>
       </c>
       <c r="B76">
-        <v>20.38</v>
+        <v>21.2</v>
       </c>
       <c r="C76">
-        <v>29.55</v>
+        <v>26.69</v>
       </c>
       <c r="D76">
-        <v>1018</v>
+        <v>1008</v>
       </c>
       <c r="E76">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="F76">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>2023-09-30 11:32:53</v>
+        <v>2023-10-02 15:11:49</v>
       </c>
       <c r="B77">
-        <v>20.07</v>
+        <v>20.9</v>
       </c>
       <c r="C77">
-        <v>29.91</v>
+        <v>28.55</v>
       </c>
       <c r="D77">
-        <v>999</v>
+        <v>971</v>
       </c>
       <c r="E77">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="F77">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>2023-09-30 16:41:29</v>
+        <v>2023-10-02 20:22:00</v>
       </c>
       <c r="B78">
-        <v>19.78</v>
+        <v>20.9</v>
       </c>
       <c r="C78">
-        <v>29.11</v>
+        <v>26.18</v>
       </c>
       <c r="D78">
-        <v>1103</v>
+        <v>982</v>
       </c>
       <c r="E78">
-        <v>19.1</v>
+        <v>19.5</v>
       </c>
       <c r="F78">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>2023-09-30 21:52:06</v>
+        <v>2023-10-03 01:34:03</v>
       </c>
       <c r="B79">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="C79">
-        <v>28.74</v>
+        <v>28.48</v>
       </c>
       <c r="D79">
-        <v>1156</v>
+        <v>903</v>
       </c>
       <c r="E79">
-        <v>18</v>
+        <v>19.7</v>
       </c>
       <c r="F79">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>2023-10-01 03:02:33</v>
+        <v>2023-10-03 06:43:28</v>
       </c>
       <c r="B80">
-        <v>20.7</v>
+        <v>20</v>
       </c>
       <c r="C80">
-        <v>28.74</v>
+        <v>28.3</v>
       </c>
       <c r="D80">
-        <v>1158</v>
+        <v>881</v>
       </c>
       <c r="E80">
-        <v>18.6</v>
+        <v>19.6</v>
       </c>
       <c r="F80">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>2023-10-01 08:12:00</v>
+        <v>2023-10-03 11:52:17</v>
       </c>
       <c r="B81">
         <v>20.8</v>
       </c>
       <c r="C81">
-        <v>28.89</v>
+        <v>28.44</v>
       </c>
       <c r="D81">
-        <v>1160</v>
+        <v>884</v>
       </c>
       <c r="E81">
-        <v>19</v>
+        <v>19.6</v>
       </c>
       <c r="F81">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>2023-10-01 13:21:32</v>
+        <v>2023-10-03 17:03:22</v>
       </c>
       <c r="B82">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="C82">
-        <v>28.81</v>
+        <v>28.3</v>
       </c>
       <c r="D82">
-        <v>1138</v>
+        <v>934</v>
       </c>
       <c r="E82">
-        <v>19.1</v>
+        <v>19.89</v>
       </c>
       <c r="F82">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>2023-10-01 18:32:00</v>
+        <v>2023-10-03 22:13:10</v>
       </c>
       <c r="B83">
-        <v>19.89</v>
+        <v>21.29</v>
       </c>
       <c r="C83">
-        <v>29.18</v>
+        <v>27.8</v>
       </c>
       <c r="D83">
-        <v>1143</v>
+        <v>940</v>
       </c>
       <c r="E83">
-        <v>19.1</v>
+        <v>20</v>
       </c>
       <c r="F83">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>2023-10-01 23:41:52</v>
+        <v>2023-10-04 03:23:09</v>
       </c>
       <c r="B84">
-        <v>20.1</v>
+        <v>21.59</v>
       </c>
       <c r="C84">
-        <v>28.74</v>
+        <v>27.65</v>
       </c>
       <c r="D84">
-        <v>1023</v>
+        <v>1013</v>
       </c>
       <c r="E84">
-        <v>19.1</v>
+        <v>19.6</v>
       </c>
       <c r="F84">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>2023-10-02 04:51:44</v>
+        <v>2023-10-04 08:33:38</v>
       </c>
       <c r="B85">
-        <v>21.2</v>
+        <v>21.36</v>
       </c>
       <c r="C85">
-        <v>28.26</v>
+        <v>27.64</v>
       </c>
       <c r="D85">
-        <v>1006</v>
+        <v>979</v>
       </c>
       <c r="E85">
-        <v>19.1</v>
+        <v>19.6</v>
       </c>
       <c r="F85">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>2023-10-02 10:03:24</v>
+        <v>2023-10-04 13:42:45</v>
       </c>
       <c r="B86">
-        <v>21.2</v>
+        <v>20.86</v>
       </c>
       <c r="C86">
-        <v>26.69</v>
+        <v>27.85</v>
       </c>
       <c r="D86">
-        <v>1008</v>
+        <v>1065</v>
       </c>
       <c r="E86">
-        <v>19.2</v>
+        <v>19.7</v>
       </c>
       <c r="F86">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>2023-10-02 15:11:49</v>
+        <v>2023-10-04 18:52:43</v>
       </c>
       <c r="B87">
-        <v>20.9</v>
+        <v>20.46</v>
       </c>
       <c r="C87">
-        <v>28.55</v>
+        <v>28.14</v>
       </c>
       <c r="D87">
-        <v>971</v>
+        <v>1140</v>
       </c>
       <c r="E87">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="F87">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>2023-10-02 20:22:00</v>
+        <v>2023-10-05 00:03:11</v>
       </c>
       <c r="B88">
-        <v>20.9</v>
+        <v>20.5</v>
       </c>
       <c r="C88">
-        <v>26.18</v>
+        <v>28.14</v>
       </c>
       <c r="D88">
-        <v>982</v>
+        <v>1121</v>
       </c>
       <c r="E88">
-        <v>19.5</v>
+        <v>19.39</v>
       </c>
       <c r="F88">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>2023-10-03 01:34:03</v>
+        <v>2023-10-05 05:13:45</v>
       </c>
       <c r="B89">
-        <v>21</v>
+        <v>20.96</v>
       </c>
       <c r="C89">
-        <v>28.48</v>
+        <v>27.93</v>
       </c>
       <c r="D89">
-        <v>903</v>
+        <v>1091</v>
       </c>
       <c r="E89">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="F89">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>2023-10-03 06:43:28</v>
+        <v>2023-10-05 10:23:15</v>
       </c>
       <c r="B90">
-        <v>20</v>
+        <v>20.67</v>
       </c>
       <c r="C90">
-        <v>28.3</v>
+        <v>27.93</v>
       </c>
       <c r="D90">
-        <v>881</v>
+        <v>1043</v>
       </c>
       <c r="E90">
         <v>19.6</v>
       </c>
       <c r="F90">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>2023-10-03 11:52:17</v>
+        <v>2023-10-05 15:33:02</v>
       </c>
       <c r="B91">
-        <v>20.8</v>
+        <v>19.89</v>
       </c>
       <c r="C91">
-        <v>28.44</v>
+        <v>28.14</v>
       </c>
       <c r="D91">
-        <v>884</v>
+        <v>1147</v>
       </c>
       <c r="E91">
         <v>19.6</v>
       </c>
       <c r="F91">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>2023-10-03 17:03:22</v>
+        <v>2023-10-05 20:43:01</v>
       </c>
       <c r="B92">
-        <v>20.7</v>
+        <v>20.68</v>
       </c>
       <c r="C92">
-        <v>28.3</v>
+        <v>27.86</v>
       </c>
       <c r="D92">
-        <v>934</v>
+        <v>1235</v>
       </c>
       <c r="E92">
-        <v>19.89</v>
+        <v>19.7</v>
       </c>
       <c r="F92">
-        <v>54</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>2023-10-03 22:13:10</v>
+        <v>2023-10-06 01:53:44</v>
       </c>
       <c r="B93">
-        <v>21.29</v>
+        <v>20.47</v>
       </c>
       <c r="C93">
-        <v>27.8</v>
+        <v>27.86</v>
       </c>
       <c r="D93">
-        <v>940</v>
+        <v>1215</v>
       </c>
       <c r="E93">
-        <v>20</v>
+        <v>19.7</v>
       </c>
       <c r="F93">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>2023-10-04 03:23:09</v>
+        <v>2023-10-06 07:03:17</v>
       </c>
       <c r="B94">
-        <v>21.59</v>
+        <v>20.17</v>
       </c>
       <c r="C94">
-        <v>27.65</v>
+        <v>28.15</v>
       </c>
       <c r="D94">
-        <v>1013</v>
+        <v>1152</v>
       </c>
       <c r="E94">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="F94">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>2023-10-04 08:33:38</v>
+        <v>2023-10-06 12:13:15</v>
       </c>
       <c r="B95">
-        <v>21.36</v>
+        <v>20</v>
       </c>
       <c r="C95">
-        <v>27.64</v>
+        <v>28.3</v>
       </c>
       <c r="D95">
-        <v>979</v>
+        <v>1216</v>
       </c>
       <c r="E95">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="F95">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>2023-10-04 13:42:45</v>
+        <v>2023-10-06 17:23:14</v>
       </c>
       <c r="B96">
-        <v>20.86</v>
+        <v>19.6</v>
       </c>
       <c r="C96">
-        <v>27.85</v>
+        <v>27.94</v>
       </c>
       <c r="D96">
-        <v>1065</v>
+        <v>1257</v>
       </c>
       <c r="E96">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="F96">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>2023-10-04 18:52:43</v>
+        <v>2023-10-06 22:33:12</v>
       </c>
       <c r="B97">
-        <v>20.46</v>
+        <v>20</v>
       </c>
       <c r="C97">
-        <v>28.14</v>
+        <v>27.94</v>
       </c>
       <c r="D97">
-        <v>1140</v>
+        <v>1269</v>
       </c>
       <c r="E97">
-        <v>19.2</v>
+        <v>19.6</v>
       </c>
       <c r="F97">
         <v>17</v>
@@ -2222,922 +2222,1002 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>2023-10-05 00:03:11</v>
+        <v>2023-10-07 03:43:10</v>
       </c>
       <c r="B98">
-        <v>20.5</v>
+        <v>19.96</v>
       </c>
       <c r="C98">
-        <v>28.14</v>
+        <v>27.94</v>
       </c>
       <c r="D98">
-        <v>1121</v>
+        <v>1179</v>
       </c>
       <c r="E98">
-        <v>19.39</v>
+        <v>19.6</v>
       </c>
       <c r="F98">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>2023-10-05 05:13:45</v>
+        <v>2023-10-07 08:53:09</v>
       </c>
       <c r="B99">
-        <v>20.96</v>
+        <v>19.98</v>
       </c>
       <c r="C99">
-        <v>27.93</v>
+        <v>27.85</v>
       </c>
       <c r="D99">
-        <v>1091</v>
+        <v>1182</v>
       </c>
       <c r="E99">
         <v>19.6</v>
       </c>
       <c r="F99">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>2023-10-05 10:23:15</v>
+        <v>2023-10-07 14:03:09</v>
       </c>
       <c r="B100">
-        <v>20.67</v>
+        <v>19.62</v>
       </c>
       <c r="C100">
-        <v>27.93</v>
+        <v>29.21</v>
       </c>
       <c r="D100">
-        <v>1043</v>
+        <v>1226</v>
       </c>
       <c r="E100">
         <v>19.6</v>
       </c>
       <c r="F100">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>2023-10-05 15:33:02</v>
+        <v>2023-10-07 19:13:07</v>
       </c>
       <c r="B101">
-        <v>19.89</v>
+        <v>19.7</v>
       </c>
       <c r="C101">
-        <v>28.14</v>
+        <v>27.92</v>
       </c>
       <c r="D101">
-        <v>1147</v>
+        <v>1220</v>
       </c>
       <c r="E101">
-        <v>19.6</v>
+        <v>19.39</v>
       </c>
       <c r="F101">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>2023-10-05 20:43:01</v>
+        <v>2023-10-08 00:23:06</v>
       </c>
       <c r="B102">
-        <v>20.68</v>
+        <v>19.59</v>
       </c>
       <c r="C102">
-        <v>27.86</v>
+        <v>27.85</v>
       </c>
       <c r="D102">
-        <v>1235</v>
+        <v>1244</v>
       </c>
       <c r="E102">
-        <v>19.7</v>
+        <v>19.39</v>
       </c>
       <c r="F102">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>2023-10-06 01:53:44</v>
+        <v>2023-10-08 05:33:04</v>
       </c>
       <c r="B103">
-        <v>20.47</v>
+        <v>19.39</v>
       </c>
       <c r="C103">
-        <v>27.86</v>
+        <v>27.84</v>
       </c>
       <c r="D103">
-        <v>1215</v>
+        <v>1203</v>
       </c>
       <c r="E103">
-        <v>19.7</v>
+        <v>19.39</v>
       </c>
       <c r="F103">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>2023-10-06 07:03:17</v>
+        <v>2023-10-08 10:44:20</v>
       </c>
       <c r="B104">
-        <v>20.17</v>
+        <v>19</v>
       </c>
       <c r="C104">
-        <v>28.15</v>
+        <v>28.13</v>
       </c>
       <c r="D104">
-        <v>1152</v>
+        <v>1159</v>
       </c>
       <c r="E104">
-        <v>19.7</v>
+        <v>18.6</v>
       </c>
       <c r="F104">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>2023-10-06 12:13:15</v>
+        <v>2023-10-08 15:53:09</v>
       </c>
       <c r="B105">
+        <v>18.5</v>
+      </c>
+      <c r="C105">
+        <v>27.84</v>
+      </c>
+      <c r="D105">
+        <v>1044</v>
+      </c>
+      <c r="E105">
+        <v>19</v>
+      </c>
+      <c r="F105">
         <v>20</v>
-      </c>
-      <c r="C105">
-        <v>28.3</v>
-      </c>
-      <c r="D105">
-        <v>1216</v>
-      </c>
-      <c r="E105">
-        <v>19.8</v>
-      </c>
-      <c r="F105">
-        <v>30</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>2023-10-06 17:23:14</v>
+        <v>2023-10-08 21:03:07</v>
       </c>
       <c r="B106">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="C106">
-        <v>27.94</v>
+        <v>29.35</v>
       </c>
       <c r="D106">
-        <v>1257</v>
+        <v>1096</v>
       </c>
       <c r="E106">
-        <v>19.6</v>
+        <v>18.6</v>
       </c>
       <c r="F106">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>2023-10-06 22:33:12</v>
+        <v>2023-10-09 02:13:07</v>
       </c>
       <c r="B107">
-        <v>20</v>
+        <v>19.53</v>
       </c>
       <c r="C107">
-        <v>27.94</v>
+        <v>28.49</v>
       </c>
       <c r="D107">
-        <v>1269</v>
+        <v>1030</v>
       </c>
       <c r="E107">
-        <v>19.6</v>
+        <v>18.7</v>
       </c>
       <c r="F107">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>2023-10-07 03:43:10</v>
+        <v>2023-10-09 07:23:06</v>
       </c>
       <c r="B108">
-        <v>19.96</v>
+        <v>19.43</v>
       </c>
       <c r="C108">
-        <v>27.94</v>
+        <v>29.28</v>
       </c>
       <c r="D108">
-        <v>1179</v>
+        <v>1027</v>
       </c>
       <c r="E108">
-        <v>19.6</v>
+        <v>19</v>
       </c>
       <c r="F108">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>2023-10-07 08:53:09</v>
+        <v>2023-10-09 12:33:04</v>
       </c>
       <c r="B109">
-        <v>19.98</v>
+        <v>19.44</v>
       </c>
       <c r="C109">
-        <v>27.85</v>
+        <v>27.56</v>
       </c>
       <c r="D109">
-        <v>1182</v>
+        <v>1003</v>
       </c>
       <c r="E109">
-        <v>19.6</v>
+        <v>19</v>
       </c>
       <c r="F109">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>2023-10-07 14:03:09</v>
+        <v>2023-10-09 17:43:38</v>
       </c>
       <c r="B110">
-        <v>19.62</v>
+        <v>19.47</v>
       </c>
       <c r="C110">
-        <v>29.21</v>
+        <v>30.58</v>
       </c>
       <c r="D110">
-        <v>1226</v>
+        <v>862</v>
       </c>
       <c r="E110">
-        <v>19.6</v>
+        <v>18.7</v>
       </c>
       <c r="F110">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>2023-10-07 19:13:07</v>
+        <v>2023-10-09 22:53:09</v>
       </c>
       <c r="B111">
-        <v>19.7</v>
+        <v>19.64</v>
       </c>
       <c r="C111">
-        <v>27.92</v>
+        <v>28.71</v>
       </c>
       <c r="D111">
-        <v>1220</v>
+        <v>889</v>
       </c>
       <c r="E111">
-        <v>19.39</v>
+        <v>18.7</v>
       </c>
       <c r="F111">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>2023-10-08 00:23:06</v>
+        <v>2023-10-10 04:03:07</v>
       </c>
       <c r="B112">
-        <v>19.59</v>
+        <v>19.64</v>
       </c>
       <c r="C112">
-        <v>27.85</v>
+        <v>28.15</v>
       </c>
       <c r="D112">
-        <v>1244</v>
+        <v>873</v>
       </c>
       <c r="E112">
-        <v>19.39</v>
+        <v>18.7</v>
       </c>
       <c r="F112">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>2023-10-08 05:33:04</v>
+        <v>2023-10-10 09:13:05</v>
       </c>
       <c r="B113">
-        <v>19.39</v>
+        <v>19.64</v>
       </c>
       <c r="C113">
-        <v>27.84</v>
+        <v>28.15</v>
       </c>
       <c r="D113">
-        <v>1203</v>
+        <v>876</v>
       </c>
       <c r="E113">
-        <v>19.39</v>
+        <v>18.7</v>
       </c>
       <c r="F113">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>2023-10-08 10:44:20</v>
+        <v>2023-10-10 14:23:04</v>
       </c>
       <c r="B114">
-        <v>19</v>
+        <v>19.98</v>
       </c>
       <c r="C114">
-        <v>28.13</v>
+        <v>28.15</v>
       </c>
       <c r="D114">
-        <v>1159</v>
+        <v>842</v>
       </c>
       <c r="E114">
-        <v>18.6</v>
+        <v>19.1</v>
       </c>
       <c r="F114">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>2023-10-08 15:53:09</v>
+        <v>2023-10-10 19:34:33</v>
       </c>
       <c r="B115">
-        <v>18.5</v>
+        <v>20.18</v>
       </c>
       <c r="C115">
-        <v>27.84</v>
+        <v>28.15</v>
       </c>
       <c r="D115">
-        <v>1044</v>
+        <v>814</v>
       </c>
       <c r="E115">
         <v>19</v>
       </c>
       <c r="F115">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>2023-10-08 21:03:07</v>
+        <v>2023-10-11 00:43:09</v>
       </c>
       <c r="B116">
-        <v>19.5</v>
+        <v>20.07</v>
       </c>
       <c r="C116">
-        <v>29.35</v>
+        <v>28.8</v>
       </c>
       <c r="D116">
-        <v>1096</v>
+        <v>782</v>
       </c>
       <c r="E116">
-        <v>18.6</v>
+        <v>19.2</v>
       </c>
       <c r="F116">
-        <v>11</v>
+        <v>61</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>2023-10-09 02:13:07</v>
+        <v>2023-10-11 05:53:07</v>
       </c>
       <c r="B117">
-        <v>19.53</v>
+        <v>20.1</v>
       </c>
       <c r="C117">
-        <v>28.49</v>
+        <v>30.35</v>
       </c>
       <c r="D117">
-        <v>1030</v>
+        <v>791</v>
       </c>
       <c r="E117">
-        <v>18.7</v>
+        <v>19.2</v>
       </c>
       <c r="F117">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>2023-10-09 07:23:06</v>
+        <v>2023-10-11 11:03:17</v>
       </c>
       <c r="B118">
-        <v>19.43</v>
+        <v>20.7</v>
       </c>
       <c r="C118">
-        <v>29.28</v>
+        <v>30.28</v>
       </c>
       <c r="D118">
-        <v>1027</v>
+        <v>766</v>
       </c>
       <c r="E118">
-        <v>19</v>
+        <v>19.89</v>
       </c>
       <c r="F118">
-        <v>23</v>
+        <v>73</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>2023-10-09 12:33:04</v>
+        <v>2023-10-11 16:13:12</v>
       </c>
       <c r="B119">
-        <v>19.44</v>
+        <v>20.18</v>
       </c>
       <c r="C119">
-        <v>27.56</v>
+        <v>29.18</v>
       </c>
       <c r="D119">
-        <v>1003</v>
+        <v>862</v>
       </c>
       <c r="E119">
-        <v>19</v>
+        <v>19.39</v>
       </c>
       <c r="F119">
-        <v>32</v>
+        <v>70</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>2023-10-09 17:43:38</v>
+        <v>2023-10-11 21:23:11</v>
       </c>
       <c r="B120">
-        <v>19.47</v>
+        <v>21</v>
       </c>
       <c r="C120">
-        <v>30.58</v>
+        <v>28.53</v>
       </c>
       <c r="D120">
-        <v>862</v>
+        <v>843</v>
       </c>
       <c r="E120">
-        <v>18.7</v>
+        <v>19.39</v>
       </c>
       <c r="F120">
-        <v>28</v>
+        <v>63</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>2023-10-09 22:53:09</v>
+        <v>2023-10-12 02:33:43</v>
       </c>
       <c r="B121">
-        <v>19.64</v>
+        <v>21.45</v>
       </c>
       <c r="C121">
-        <v>28.71</v>
+        <v>29.47</v>
       </c>
       <c r="D121">
-        <v>889</v>
+        <v>808</v>
       </c>
       <c r="E121">
-        <v>18.7</v>
+        <v>19.5</v>
       </c>
       <c r="F121">
-        <v>25</v>
+        <v>59</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>2023-10-10 04:03:07</v>
+        <v>2023-10-12 07:43:16</v>
       </c>
       <c r="B122">
-        <v>19.64</v>
+        <v>21.44</v>
       </c>
       <c r="C122">
-        <v>28.15</v>
+        <v>28.98</v>
       </c>
       <c r="D122">
-        <v>873</v>
+        <v>808</v>
       </c>
       <c r="E122">
-        <v>18.7</v>
+        <v>19.5</v>
       </c>
       <c r="F122">
-        <v>23</v>
+        <v>74</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>2023-10-10 09:13:05</v>
+        <v>2023-10-12 12:46:57</v>
       </c>
       <c r="B123">
-        <v>19.64</v>
+        <v>20.69</v>
       </c>
       <c r="C123">
-        <v>28.15</v>
+        <v>28.76</v>
       </c>
       <c r="D123">
-        <v>876</v>
+        <v>835</v>
       </c>
       <c r="E123">
-        <v>18.7</v>
+        <v>19.7</v>
       </c>
       <c r="F123">
-        <v>37</v>
+        <v>82</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>2023-10-10 14:23:04</v>
+        <v>2023-10-12 17:59:09</v>
       </c>
       <c r="B124">
-        <v>19.98</v>
+        <v>20.9</v>
       </c>
       <c r="C124">
-        <v>28.15</v>
+        <v>28.91</v>
       </c>
       <c r="D124">
-        <v>842</v>
+        <v>885</v>
       </c>
       <c r="E124">
-        <v>19.1</v>
+        <v>19.6</v>
       </c>
       <c r="F124">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>2023-10-10 19:34:33</v>
+        <v>2023-10-12 23:07:02</v>
       </c>
       <c r="B125">
-        <v>20.18</v>
+        <v>21.3</v>
       </c>
       <c r="C125">
-        <v>28.15</v>
+        <v>28.76</v>
       </c>
       <c r="D125">
-        <v>814</v>
+        <v>852</v>
       </c>
       <c r="E125">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="F125">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>2023-10-11 00:43:09</v>
+        <v>2023-10-13 04:17:25</v>
       </c>
       <c r="B126">
-        <v>20.07</v>
+        <v>19.89</v>
       </c>
       <c r="C126">
-        <v>28.8</v>
+        <v>29.14</v>
       </c>
       <c r="D126">
-        <v>782</v>
+        <v>884</v>
       </c>
       <c r="E126">
-        <v>19.2</v>
+        <v>19.5</v>
       </c>
       <c r="F126">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>2023-10-11 05:53:07</v>
+        <v>2023-10-13 09:27:18</v>
       </c>
       <c r="B127">
-        <v>20.1</v>
+        <v>21</v>
       </c>
       <c r="C127">
-        <v>30.35</v>
+        <v>31.11</v>
       </c>
       <c r="D127">
-        <v>791</v>
+        <v>865</v>
       </c>
       <c r="E127">
-        <v>19.2</v>
+        <v>19.6</v>
       </c>
       <c r="F127">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>2023-10-11 11:03:17</v>
+        <v>2023-10-13 14:37:16</v>
       </c>
       <c r="B128">
-        <v>20.7</v>
+        <v>21.17</v>
       </c>
       <c r="C128">
-        <v>30.28</v>
+        <v>29.36</v>
       </c>
       <c r="D128">
-        <v>766</v>
+        <v>840</v>
       </c>
       <c r="E128">
-        <v>19.89</v>
+        <v>19.7</v>
       </c>
       <c r="F128">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>2023-10-11 16:13:12</v>
+        <v>2023-10-13 19:48:51</v>
       </c>
       <c r="B129">
-        <v>20.18</v>
+        <v>20.82</v>
       </c>
       <c r="C129">
-        <v>29.18</v>
+        <v>29.36</v>
       </c>
       <c r="D129">
-        <v>862</v>
+        <v>871</v>
       </c>
       <c r="E129">
-        <v>19.39</v>
+        <v>19.6</v>
       </c>
       <c r="F129">
-        <v>70</v>
+        <v>42</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>2023-10-11 21:23:11</v>
+        <v>2023-10-14 00:57:21</v>
       </c>
       <c r="B130">
-        <v>21</v>
+        <v>21.23</v>
       </c>
       <c r="C130">
-        <v>28.53</v>
+        <v>29.87</v>
       </c>
       <c r="D130">
-        <v>843</v>
+        <v>791</v>
       </c>
       <c r="E130">
-        <v>19.39</v>
+        <v>19.7</v>
       </c>
       <c r="F130">
-        <v>63</v>
+        <v>86</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>2023-10-12 02:33:43</v>
+        <v>2023-10-14 06:07:19</v>
       </c>
       <c r="B131">
-        <v>21.45</v>
+        <v>21.24</v>
       </c>
       <c r="C131">
-        <v>29.47</v>
+        <v>29.59</v>
       </c>
       <c r="D131">
-        <v>808</v>
+        <v>851</v>
       </c>
       <c r="E131">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="F131">
-        <v>59</v>
+        <v>84</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>2023-10-12 07:43:16</v>
+        <v>2023-10-14 11:17:18</v>
       </c>
       <c r="B132">
-        <v>21.44</v>
+        <v>21.24</v>
       </c>
       <c r="C132">
-        <v>28.98</v>
+        <v>29.15</v>
       </c>
       <c r="D132">
-        <v>808</v>
+        <v>782</v>
       </c>
       <c r="E132">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="F132">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>2023-10-12 12:46:57</v>
+        <v>2023-10-14 16:27:16</v>
       </c>
       <c r="B133">
-        <v>20.69</v>
+        <v>20.94</v>
       </c>
       <c r="C133">
-        <v>28.76</v>
+        <v>29.22</v>
       </c>
       <c r="D133">
-        <v>835</v>
+        <v>794</v>
       </c>
       <c r="E133">
         <v>19.7</v>
       </c>
       <c r="F133">
-        <v>82</v>
+        <v>29</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>2023-10-12 17:59:09</v>
+        <v>2023-10-14 21:38:05</v>
       </c>
       <c r="B134">
-        <v>20.9</v>
+        <v>20.73</v>
       </c>
       <c r="C134">
-        <v>28.91</v>
+        <v>29.59</v>
       </c>
       <c r="D134">
-        <v>885</v>
+        <v>850</v>
       </c>
       <c r="E134">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="F134">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>2023-10-12 23:07:02</v>
+        <v>2023-10-15 02:47:22</v>
       </c>
       <c r="B135">
-        <v>21.3</v>
+        <v>21.03</v>
       </c>
       <c r="C135">
-        <v>28.76</v>
+        <v>29.59</v>
       </c>
       <c r="D135">
-        <v>852</v>
+        <v>871</v>
       </c>
       <c r="E135">
-        <v>19.5</v>
+        <v>19.89</v>
       </c>
       <c r="F135">
-        <v>68</v>
+        <v>47</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>2023-10-13 04:17:25</v>
+        <v>2023-10-15 07:57:20</v>
       </c>
       <c r="B136">
+        <v>21.12</v>
+      </c>
+      <c r="C136">
+        <v>32.07</v>
+      </c>
+      <c r="D136">
+        <v>878</v>
+      </c>
+      <c r="E136">
         <v>19.89</v>
       </c>
-      <c r="C136">
-        <v>29.14</v>
-      </c>
-      <c r="D136">
-        <v>884</v>
-      </c>
-      <c r="E136">
-        <v>19.5</v>
-      </c>
       <c r="F136">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>2023-10-13 09:27:18</v>
+        <v>2023-10-15 13:07:18</v>
       </c>
       <c r="B137">
-        <v>21</v>
+        <v>20.58</v>
       </c>
       <c r="C137">
-        <v>31.11</v>
+        <v>29.58</v>
       </c>
       <c r="D137">
-        <v>865</v>
+        <v>894</v>
       </c>
       <c r="E137">
-        <v>19.6</v>
+        <v>19.89</v>
       </c>
       <c r="F137">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>2023-10-13 14:37:16</v>
+        <v>2023-10-15 18:17:17</v>
       </c>
       <c r="B138">
-        <v>21.17</v>
+        <v>20.47</v>
       </c>
       <c r="C138">
         <v>29.36</v>
       </c>
       <c r="D138">
-        <v>840</v>
+        <v>990</v>
       </c>
       <c r="E138">
-        <v>19.7</v>
+        <v>19.89</v>
       </c>
       <c r="F138">
-        <v>68</v>
+        <v>42</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>2023-10-13 19:48:51</v>
+        <v>2023-10-15 23:27:53</v>
       </c>
       <c r="B139">
-        <v>20.82</v>
+        <v>20.7</v>
       </c>
       <c r="C139">
-        <v>29.36</v>
+        <v>30.46</v>
       </c>
       <c r="D139">
-        <v>871</v>
+        <v>929</v>
       </c>
       <c r="E139">
-        <v>19.6</v>
+        <v>19.89</v>
       </c>
       <c r="F139">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>2023-10-14 00:57:21</v>
+        <v>2023-10-16 04:37:54</v>
       </c>
       <c r="B140">
-        <v>21.23</v>
+        <v>20.98</v>
       </c>
       <c r="C140">
-        <v>29.87</v>
+        <v>29.86</v>
       </c>
       <c r="D140">
-        <v>791</v>
+        <v>980</v>
       </c>
       <c r="E140">
-        <v>19.7</v>
+        <v>19.89</v>
       </c>
       <c r="F140">
-        <v>86</v>
+        <v>19</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>2023-10-14 06:07:19</v>
+        <v>2023-10-16 09:47:29</v>
       </c>
       <c r="B141">
-        <v>21.24</v>
+        <v>20.5</v>
       </c>
       <c r="C141">
-        <v>29.59</v>
+        <v>29.43</v>
       </c>
       <c r="D141">
-        <v>851</v>
+        <v>1062</v>
       </c>
       <c r="E141">
-        <v>19.7</v>
+        <v>19.89</v>
       </c>
       <c r="F141">
-        <v>84</v>
+        <v>22</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>2023-10-14 11:17:18</v>
+        <v>2023-10-16 14:57:27</v>
       </c>
       <c r="B142">
-        <v>21.24</v>
+        <v>20.67</v>
       </c>
       <c r="C142">
-        <v>29.15</v>
+        <v>28.86</v>
       </c>
       <c r="D142">
-        <v>782</v>
+        <v>1049</v>
       </c>
       <c r="E142">
-        <v>19.7</v>
+        <v>19.89</v>
       </c>
       <c r="F142">
-        <v>59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>2023-10-14 16:27:16</v>
+        <v>2023-10-16 20:07:23</v>
       </c>
       <c r="B143">
-        <v>20.94</v>
+        <v>20.65</v>
       </c>
       <c r="C143">
-        <v>29.22</v>
+        <v>28.86</v>
       </c>
       <c r="D143">
-        <v>794</v>
+        <v>1104</v>
       </c>
       <c r="E143">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="F143">
-        <v>29</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>2023-10-17 01:19:19</v>
+      </c>
+      <c r="B144">
+        <v>20.76</v>
+      </c>
+      <c r="C144">
+        <v>31.08</v>
+      </c>
+      <c r="D144">
+        <v>1061</v>
+      </c>
+      <c r="E144">
+        <v>19.6</v>
+      </c>
+      <c r="F144">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>2023-10-17 06:27:28</v>
+      </c>
+      <c r="B145">
+        <v>20.63</v>
+      </c>
+      <c r="C145">
+        <v>30.41</v>
+      </c>
+      <c r="D145">
+        <v>1049</v>
+      </c>
+      <c r="E145">
+        <v>19.6</v>
+      </c>
+      <c r="F145">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>2023-10-17 11:37:28</v>
+      </c>
+      <c r="B146">
+        <v>20.3</v>
+      </c>
+      <c r="C146">
+        <v>29.54</v>
+      </c>
+      <c r="D146">
+        <v>1086</v>
+      </c>
+      <c r="E146">
+        <v>19.5</v>
+      </c>
+      <c r="F146">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>2023-10-17 16:47:28</v>
+      </c>
+      <c r="B147">
+        <v>20.76</v>
+      </c>
+      <c r="C147">
+        <v>29.54</v>
+      </c>
+      <c r="D147">
+        <v>1035</v>
+      </c>
+      <c r="E147">
+        <v>19.6</v>
+      </c>
+      <c r="F147">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3149,7 +3229,7 @@
     <mergeCell ref="A6:H6"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F143"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F147"/>
   </ignoredErrors>
 </worksheet>
 </file>